--- a/arangoDB/results/Resultados.xlsx
+++ b/arangoDB/results/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\janio\Documents\Education\Mestrado e Doutorado\CEFET\Disciplinas\5. Banco de Dados\Trabalho 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\janio\Documents\Education\Mestrado e Doutorado\CEFET\Disciplinas\5. Banco de Dados\Trabalho 03\results-20210518T134631Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA34858-579B-481C-BE42-43C59D497903}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD31288-5402-4ACA-A0A1-3D47DFF11A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{44AF055A-ADD4-43D7-88A7-9E643E3593B1}"/>
+    <workbookView xWindow="7200" yWindow="1155" windowWidth="21600" windowHeight="11505" xr2:uid="{44AF055A-ADD4-43D7-88A7-9E643E3593B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Testes selecionados" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,25 +314,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8350000000000009</c:v>
+                  <c:v>9.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.716999999999999</c:v>
+                  <c:v>19.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1459999999999999</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5819999999999999</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54400000000000004</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,25 +834,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8350000000000009</c:v>
+                  <c:v>9.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.716999999999999</c:v>
+                  <c:v>19.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1459999999999999</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5819999999999999</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54400000000000004</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1237,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1370,7 +1370,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1452,25 +1452,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99874765184721348</c:v>
+                  <c:v>1.0224170319348778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0133951571354973</c:v>
+                  <c:v>0.99629057187017001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97729863692688956</c:v>
+                  <c:v>0.97437422552664188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33690476190476187</c:v>
+                  <c:v>0.37083333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0150575730735163</c:v>
+                  <c:v>0.90788308237378201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99231360491929288</c:v>
+                  <c:v>0.97924673328209078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6407766990291264</c:v>
+                  <c:v>7.6796116504854375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1990,28 +1990,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7975</c:v>
+                  <c:v>8164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9835</c:v>
+                  <c:v>9669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19717</c:v>
+                  <c:v>19658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>566</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1146</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2582</c:v>
+                  <c:v>2548</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -2534,28 +2534,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8350000000000009</c:v>
+                  <c:v>9.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.716999999999999</c:v>
+                  <c:v>19.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54400000000000004</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1459999999999999</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5819999999999999</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E-3</c:v>
@@ -3078,28 +3078,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8350000000000009</c:v>
+                  <c:v>9.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.716999999999999</c:v>
+                  <c:v>19.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54400000000000004</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1459999999999999</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5819999999999999</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1E-3</c:v>
@@ -7171,7 +7171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FC57E-9178-43C2-9149-71AF519AD2BB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7180,8 +7182,8 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -7244,25 +7246,25 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>7975</v>
+        <v>8164</v>
       </c>
       <c r="C3" s="1">
-        <v>9835</v>
+        <v>9669</v>
       </c>
       <c r="D3" s="1">
-        <v>19717</v>
+        <v>19658</v>
       </c>
       <c r="E3" s="1">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="F3" s="1">
-        <v>1146</v>
+        <v>1025</v>
       </c>
       <c r="G3" s="1">
-        <v>2582</v>
+        <v>2548</v>
       </c>
       <c r="H3" s="1">
-        <v>544</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7286,15 +7288,15 @@
         <v>1.68</v>
       </c>
       <c r="F4" s="2">
-        <f>F2/1000</f>
+        <f t="shared" ref="F4:H5" si="1">F2/1000</f>
         <v>1.129</v>
       </c>
       <c r="G4" s="2">
-        <f>G2/1000</f>
+        <f t="shared" si="1"/>
         <v>2.6019999999999999</v>
       </c>
       <c r="H4" s="2">
-        <f>H2/1000</f>
+        <f t="shared" si="1"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -7304,31 +7306,31 @@
       </c>
       <c r="B5" s="2">
         <f>B3/1000</f>
-        <v>7.9749999999999996</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>9.8350000000000009</v>
+        <v>9.6690000000000005</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>19.716999999999999</v>
+        <v>19.658000000000001</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.56599999999999995</v>
+        <v>0.623</v>
       </c>
       <c r="F5" s="2">
-        <f>F3/1000</f>
-        <v>1.1459999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.0249999999999999</v>
       </c>
       <c r="G5" s="2">
-        <f>G3/1000</f>
-        <v>2.5819999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2.548</v>
       </c>
       <c r="H5" s="2">
-        <f>H3/1000</f>
-        <v>0.54400000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7336,31 +7338,31 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <f>B4/B4</f>
+        <f t="shared" ref="B6:H6" si="2">B4/B4</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>C4/C4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D6">
-        <f>D4/D4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>E4/E4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>F4/F4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>G4/G4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>H4/H4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7369,32 +7371,32 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <f>B5/B4</f>
-        <v>0.99874765184721348</v>
+        <f t="shared" ref="B7:H7" si="3">B5/B4</f>
+        <v>1.0224170319348778</v>
       </c>
       <c r="C7">
-        <f>C5/C4</f>
-        <v>1.0133951571354973</v>
+        <f t="shared" si="3"/>
+        <v>0.99629057187017001</v>
       </c>
       <c r="D7">
-        <f>D5/D4</f>
-        <v>0.97729863692688956</v>
+        <f t="shared" si="3"/>
+        <v>0.97437422552664188</v>
       </c>
       <c r="E7">
-        <f>E5/E4</f>
-        <v>0.33690476190476187</v>
+        <f t="shared" si="3"/>
+        <v>0.37083333333333335</v>
       </c>
       <c r="F7">
-        <f>F5/F4</f>
-        <v>1.0150575730735163</v>
+        <f t="shared" si="3"/>
+        <v>0.90788308237378201</v>
       </c>
       <c r="G7">
-        <f>G5/G4</f>
-        <v>0.99231360491929288</v>
+        <f t="shared" si="3"/>
+        <v>0.97924673328209078</v>
       </c>
       <c r="H7">
-        <f>H5/H4</f>
-        <v>2.6407766990291264</v>
+        <f t="shared" si="3"/>
+        <v>7.6796116504854375</v>
       </c>
     </row>
   </sheetData>
@@ -7408,8 +7410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380E20EE-EBF4-4653-81E5-4AE466911608}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7495,28 +7497,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>7975</v>
+        <v>8164</v>
       </c>
       <c r="C3" s="1">
-        <v>9835</v>
+        <v>9669</v>
       </c>
       <c r="D3" s="1">
-        <v>19717</v>
+        <v>19658</v>
       </c>
       <c r="E3" s="1">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="F3" s="1">
-        <v>544</v>
+        <v>1582</v>
       </c>
       <c r="G3" s="1">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1">
-        <v>1146</v>
+        <v>1025</v>
       </c>
       <c r="I3" s="1">
-        <v>2582</v>
+        <v>2548</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -7569,35 +7571,35 @@
       </c>
       <c r="B5" s="2">
         <f>B3/1000</f>
-        <v>7.9749999999999996</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:J5" si="1">C3/1000</f>
-        <v>9.8350000000000009</v>
+        <v>9.6690000000000005</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>19.716999999999999</v>
+        <v>19.658000000000001</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>0.56599999999999995</v>
+        <v>0.623</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>0.54400000000000004</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>0.13100000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>1.1459999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>2.5819999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="1"/>
